--- a/res/哲学家.xlsx
+++ b/res/哲学家.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\fun-pages\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3F6299-7831-44F5-8C8D-00BA1B7F5B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3519BBC5-C52E-48F7-877E-762F61D49DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="2208" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2088" yWindow="3792" windowWidth="17280" windowHeight="8772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,80 @@
   </si>
   <si>
     <t xml:space="preserve">弗里德里希·谢林 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛泽东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安东尼奥·弗朗切斯科·葛兰西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼古洛·迪·贝尔纳多·代·马基雅维利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">巴鲁赫·斯宾诺莎 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟德斯鸠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让·雅克·卢梭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加斯东·巴舍拉</t>
+  </si>
+  <si>
+    <t>乔治·康吉莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让·卡瓦耶斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼科斯·普兰查斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅克·朗西埃</t>
+  </si>
+  <si>
+    <t>阿兰·巴迪欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉尔·德勒兹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米歇尔·福柯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅克-阿兰·米勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费迪南·德·索绪尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃德蒙·胡塞尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗里德里希·威廉·尼采</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅克·德里达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -435,9 +509,6 @@
       <c r="B2">
         <v>1949</v>
       </c>
-      <c r="C2">
-        <v>2023</v>
-      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -558,6 +629,206 @@
       </c>
       <c r="C13">
         <v>1854</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1893</v>
+      </c>
+      <c r="C14">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1891</v>
+      </c>
+      <c r="C15">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1469</v>
+      </c>
+      <c r="C16">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1632</v>
+      </c>
+      <c r="C17">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1689</v>
+      </c>
+      <c r="C18">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1712</v>
+      </c>
+      <c r="C19">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1884</v>
+      </c>
+      <c r="C20">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>1904</v>
+      </c>
+      <c r="C21">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>1903</v>
+      </c>
+      <c r="C22">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>1936</v>
+      </c>
+      <c r="C23">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>1925</v>
+      </c>
+      <c r="C26">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>1926</v>
+      </c>
+      <c r="C27">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>1857</v>
+      </c>
+      <c r="C29">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>1859</v>
+      </c>
+      <c r="C30">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>1844</v>
+      </c>
+      <c r="C31">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>1930</v>
+      </c>
+      <c r="C32">
+        <v>2004</v>
       </c>
     </row>
   </sheetData>
